--- a/3.13/left.xlsx
+++ b/3.13/left.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\GitHub\students.mathsnz.com\3.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67E6FBD-93A4-421C-8724-B88E7CC9074A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EF263A-9F79-4345-9249-246216F32EBE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="470" windowWidth="14340" windowHeight="6620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
   <si>
     <t>Before</t>
   </si>
@@ -304,6 +304,9 @@
     <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.13/pdfs/7.pdf&amp;embedded=true</t>
   </si>
   <si>
+    <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.13/pdfs/8.pdf&amp;embedded=true</t>
+  </si>
+  <si>
     <t>Part 7a: Conditional Probability Video</t>
   </si>
   <si>
@@ -329,6 +332,12 @@
   </si>
   <si>
     <t>Part 8.1: Risk and Relative Risk Exercise</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.13/pdfs/8.1.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>Header</t>
   </si>
 </sst>
 </file>
@@ -392,7 +401,27 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="57">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1221,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1263,10 +1292,13 @@
       <c r="J1" t="s">
         <v>7</v>
       </c>
+      <c r="K1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
-        <f>IF(I2&lt;&gt;"Lesson","&lt;a href='"&amp;H2&amp;".html' class="&amp;I2&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <f>IF(I2&lt;&gt;"Lesson","&lt;a href='"&amp;H2&amp;".html' class="&amp;I2&amp;" header="&amp;K2&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1295,11 +1327,15 @@
       <c r="I2" t="s">
         <v>10</v>
       </c>
+      <c r="K2" t="str">
+        <f>SUBSTITUTE(MID(F2,2,99),".","")</f>
+        <v/>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
-        <f>IF(I3&lt;&gt;"Lesson","&lt;a href='"&amp;H3&amp;".html' class="&amp;I3&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
-        <v>&lt;a href='3.13_1a.html' class=Video&gt;</v>
+        <f>IF(I3&lt;&gt;"Lesson","&lt;a href='"&amp;H3&amp;".html' class="&amp;I3&amp;" header="&amp;K3&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <v>&lt;a href='3.13_1a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>30</v>
@@ -1330,11 +1366,15 @@
       <c r="J3" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K51" si="5">SUBSTITUTE(MID(F3,2,99),".","")</f>
+        <v>a</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
-        <f>IF(I4&lt;&gt;"Lesson","&lt;a href='"&amp;H4&amp;".html' class="&amp;I4&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
-        <v>&lt;a href='3.13_1_1.html' class=Questions&gt;</v>
+        <f t="shared" ref="A4:A51" si="6">IF(I4&lt;&gt;"Lesson","&lt;a href='"&amp;H4&amp;".html' class="&amp;I4&amp;" header="&amp;K4&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <v>&lt;a href='3.13_1_1.html' class=Questions header=1&gt;</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
@@ -1365,11 +1405,15 @@
       <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="K4" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
-        <f t="shared" ref="A5:A51" si="5">IF(I5&lt;&gt;"Lesson","&lt;a href='"&amp;H5&amp;".html' class="&amp;I5&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
-        <v>&lt;a href='3.13_1_1a.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_1_1a.html' class=Document header=1a&gt;</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
@@ -1400,10 +1444,14 @@
       <c r="J5" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="K5" t="str">
+        <f t="shared" si="5"/>
+        <v>1a</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B6" t="s">
@@ -1433,11 +1481,15 @@
         <v>10</v>
       </c>
       <c r="J6" s="2"/>
+      <c r="K6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
-        <f>IF(I7&lt;&gt;"Lesson","&lt;a href='"&amp;H7&amp;".html' class="&amp;I7&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
-        <v>&lt;a href='3.13_2a.html' class=Video&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_2a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -1468,12 +1520,15 @@
       <c r="J7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" t="str">
+        <f t="shared" si="5"/>
+        <v>a</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_2b.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_2b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -1504,11 +1559,15 @@
       <c r="J8" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="K8" t="str">
+        <f t="shared" si="5"/>
+        <v>b</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_2_1.html' class=Questions&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_2_1.html' class=Questions header=1&gt;</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -1539,11 +1598,15 @@
       <c r="J9" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="K9" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
-        <f>IF(I10&lt;&gt;"Lesson","&lt;a href='"&amp;H10&amp;".html' class="&amp;I10&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
-        <v>&lt;a href='3.13_2_1a.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_2_1a.html' class=Document header=1a&gt;</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
@@ -1574,11 +1637,15 @@
       <c r="J10" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="K10" t="str">
+        <f t="shared" si="5"/>
+        <v>1a</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_2_2.html' class=Questions&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_2_2.html' class=Questions header=2&gt;</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1609,11 +1676,15 @@
       <c r="J11" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="K11" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
-        <f>IF(I12&lt;&gt;"Lesson","&lt;a href='"&amp;H12&amp;".html' class="&amp;I12&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
-        <v>&lt;a href='3.13_2_2a.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_2_2a.html' class=Document header=2a&gt;</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
@@ -1644,11 +1715,15 @@
       <c r="J12" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="K12" t="str">
+        <f t="shared" si="5"/>
+        <v>2a</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_2_3.html' class=Video&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_2_3.html' class=Video header=3&gt;</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -1679,11 +1754,15 @@
       <c r="J13" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="K13" t="str">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
-        <f>IF(I14&lt;&gt;"Lesson","&lt;a href='"&amp;H14&amp;".html' class="&amp;I14&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
-        <v>&lt;a href='3.13_2_3a.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_2_3a.html' class=Document header=3a&gt;</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -1714,11 +1793,15 @@
       <c r="J14" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="K14" t="str">
+        <f t="shared" si="5"/>
+        <v>3a</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_2_4.html' class=Questions&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_2_4.html' class=Questions header=4&gt;</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
@@ -1749,11 +1832,15 @@
       <c r="J15" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="K15" t="str">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
-        <f>IF(I16&lt;&gt;"Lesson","&lt;a href='"&amp;H16&amp;".html' class="&amp;I16&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
-        <v>&lt;a href='3.13_2_4a.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_2_4a.html' class=Document header=4a&gt;</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
@@ -1784,10 +1871,14 @@
       <c r="J16" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16" t="str">
+        <f t="shared" si="5"/>
+        <v>4a</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B17" t="s">
@@ -1817,11 +1908,15 @@
         <v>10</v>
       </c>
       <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_3a.html' class=Video&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_3a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B18" t="s">
         <v>44</v>
@@ -1852,11 +1947,15 @@
       <c r="J18" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18" t="str">
+        <f t="shared" si="5"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_3b.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_3b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
@@ -1887,18 +1986,22 @@
       <c r="J19" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K19" t="str">
+        <f t="shared" si="5"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_3_1.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_3_1.html' class=Document header=1&gt;</v>
       </c>
       <c r="B20" t="s">
         <v>53</v>
       </c>
-      <c r="C20" t="e">
-        <f>IF(#REF!&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
-        <v>#REF!</v>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;/a&gt;</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
@@ -1922,11 +2025,15 @@
       <c r="J20" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K20" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_3_2.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_3_2.html' class=Document header=2&gt;</v>
       </c>
       <c r="B21" t="s">
         <v>54</v>
@@ -1957,10 +2064,14 @@
       <c r="J21" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K21" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B22" t="s">
@@ -1990,11 +2101,15 @@
         <v>10</v>
       </c>
       <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_4a.html' class=Video&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_4a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B23" t="s">
         <v>51</v>
@@ -2025,11 +2140,15 @@
       <c r="J23" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K23" t="str">
+        <f t="shared" si="5"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_4b.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_4b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
@@ -2060,11 +2179,15 @@
       <c r="J24" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K24" t="str">
+        <f t="shared" si="5"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_4_1.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_4_1.html' class=Document header=1&gt;</v>
       </c>
       <c r="B25" t="s">
         <v>55</v>
@@ -2095,10 +2218,14 @@
       <c r="J25" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K25" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B26" t="s">
@@ -2128,11 +2255,15 @@
         <v>10</v>
       </c>
       <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_5a.html' class=Video&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_5a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B27" t="s">
         <v>57</v>
@@ -2163,11 +2294,15 @@
       <c r="J27" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K27" t="str">
+        <f t="shared" si="5"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_5b.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_5b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
@@ -2198,11 +2333,15 @@
       <c r="J28" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K28" t="str">
+        <f t="shared" si="5"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_5_1.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_5_1.html' class=Document header=1&gt;</v>
       </c>
       <c r="B29" t="s">
         <v>60</v>
@@ -2233,11 +2372,15 @@
       <c r="J29" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K29" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_5_2.html' class=Video&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_5_2.html' class=Video header=2&gt;</v>
       </c>
       <c r="B30" t="s">
         <v>62</v>
@@ -2268,11 +2411,15 @@
       <c r="J30" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K30" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_5_2a.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_5_2a.html' class=Document header=2a&gt;</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
@@ -2303,11 +2450,15 @@
       <c r="J31" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K31" t="str">
+        <f t="shared" si="5"/>
+        <v>2a</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_5_3.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_5_3.html' class=Document header=3&gt;</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
@@ -2338,11 +2489,15 @@
       <c r="J32" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K32" t="str">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_5_4.html' class=Video&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_5_4.html' class=Video header=4&gt;</v>
       </c>
       <c r="B33" t="s">
         <v>68</v>
@@ -2352,7 +2507,7 @@
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" ref="E33:E34" si="6">LEFT(B33,FIND(":",B33)-1)</f>
+        <f t="shared" ref="E33:E34" si="7">LEFT(B33,FIND(":",B33)-1)</f>
         <v>Part 5.4</v>
       </c>
       <c r="F33" t="str">
@@ -2364,7 +2519,7 @@
         <v>5_4</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" ref="H33:H34" si="7">"3.13_"&amp;G33</f>
+        <f t="shared" ref="H33:H34" si="8">"3.13_"&amp;G33</f>
         <v>3.13_5_4</v>
       </c>
       <c r="I33" s="3" t="s">
@@ -2373,11 +2528,15 @@
       <c r="J33" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K33" t="str">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_5_4a.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_5_4a.html' class=Document header=4a&gt;</v>
       </c>
       <c r="B34" t="s">
         <v>69</v>
@@ -2387,7 +2546,7 @@
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Part 5.4a</v>
       </c>
       <c r="F34" t="str">
@@ -2399,7 +2558,7 @@
         <v>5_4a</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.13_5_4a</v>
       </c>
       <c r="I34" s="3" t="s">
@@ -2408,11 +2567,15 @@
       <c r="J34" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K34" t="str">
+        <f t="shared" si="5"/>
+        <v>4a</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_5_5.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_5_5.html' class=Document header=5&gt;</v>
       </c>
       <c r="B35" t="s">
         <v>70</v>
@@ -2422,7 +2585,7 @@
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" ref="E35" si="8">LEFT(B35,FIND(":",B35)-1)</f>
+        <f t="shared" ref="E35" si="9">LEFT(B35,FIND(":",B35)-1)</f>
         <v>Part 5.5</v>
       </c>
       <c r="F35" t="str">
@@ -2434,7 +2597,7 @@
         <v>5_5</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" ref="H35" si="9">"3.13_"&amp;G35</f>
+        <f t="shared" ref="H35" si="10">"3.13_"&amp;G35</f>
         <v>3.13_5_5</v>
       </c>
       <c r="I35" s="3" t="s">
@@ -2443,10 +2606,14 @@
       <c r="J35" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K35" t="str">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B36" t="s">
@@ -2476,11 +2643,15 @@
         <v>10</v>
       </c>
       <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K36" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_6a.html' class=Video&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_6a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B37" t="s">
         <v>81</v>
@@ -2509,13 +2680,17 @@
         <v>9</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="5"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_6b.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_6b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B38" t="s">
         <v>82</v>
@@ -2525,7 +2700,7 @@
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" ref="E38:E39" si="10">LEFT(B38,FIND(":",B38)-1)</f>
+        <f t="shared" ref="E38:E39" si="11">LEFT(B38,FIND(":",B38)-1)</f>
         <v>Part 6b</v>
       </c>
       <c r="F38" t="str">
@@ -2537,7 +2712,7 @@
         <v>6b</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" ref="H38:H39" si="11">"3.13_"&amp;G38</f>
+        <f t="shared" ref="H38:H39" si="12">"3.13_"&amp;G38</f>
         <v>3.13_6b</v>
       </c>
       <c r="I38" s="3" t="s">
@@ -2546,11 +2721,15 @@
       <c r="J38" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K38" t="str">
+        <f t="shared" si="5"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_6_1.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_6_1.html' class=Document header=1&gt;</v>
       </c>
       <c r="B39" t="s">
         <v>83</v>
@@ -2560,7 +2739,7 @@
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Part 6.1</v>
       </c>
       <c r="F39" t="str">
@@ -2572,7 +2751,7 @@
         <v>6_1</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.13_6_1</v>
       </c>
       <c r="I39" s="3" t="s">
@@ -2581,10 +2760,14 @@
       <c r="J39" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K39" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B40" t="s">
@@ -2614,14 +2797,18 @@
         <v>10</v>
       </c>
       <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
-        <f t="shared" ref="A41:A43" si="12">IF(I41&lt;&gt;"Lesson","&lt;a href='"&amp;H41&amp;".html' class="&amp;I41&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
-        <v>&lt;a href='3.13_7a.html' class=Video&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_7a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" ref="C41:C43" si="13">IF(I41&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -2647,16 +2834,20 @@
         <v>9</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="5"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;a href='3.13_7b.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_7b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="13"/>
@@ -2684,14 +2875,18 @@
       <c r="J42" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K42" t="str">
+        <f t="shared" si="5"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;a href='3.13_7_1.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_7_1.html' class=Document header=1&gt;</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="13"/>
@@ -2717,12 +2912,16 @@
         <v>8</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B44" t="s">
@@ -2752,14 +2951,18 @@
         <v>10</v>
       </c>
       <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K44" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_8a.html' class=Video&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_8a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
@@ -2785,14 +2988,18 @@
         <v>9</v>
       </c>
       <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K45" t="str">
+        <f t="shared" si="5"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_8b.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_8b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
@@ -2817,15 +3024,21 @@
       <c r="I46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="4"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="5"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_8_1.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_8_1.html' class=Document header=1&gt;</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
@@ -2850,11 +3063,17 @@
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="4"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B48" t="s">
@@ -2884,11 +3103,15 @@
         <v>10</v>
       </c>
       <c r="J48" s="2"/>
+      <c r="K48" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_9a.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_9a.html' class=Document header=a&gt;</v>
       </c>
       <c r="B49" t="s">
         <v>87</v>
@@ -2919,10 +3142,14 @@
       <c r="J49" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="K49" t="str">
+        <f t="shared" si="5"/>
+        <v>a</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B50" t="s">
@@ -2952,11 +3179,15 @@
         <v>10</v>
       </c>
       <c r="J50" s="2"/>
+      <c r="K50" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;a href='3.13_A.html' class=Document&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;a href='3.13_A.html' class=Document header=&gt;</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
@@ -2987,6 +3218,10 @@
       <c r="J51" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="K51" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J52" s="2"/>
@@ -3145,261 +3380,271 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J26:J27">
-    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J2 J50 J40 J82:J90 J102:J114 J152:J170 J62:J67 J116:J128 J69:J80 J92:J100 J172:J1048576 J130:J150 J5:J6 J52:J59 J17 J8 J22">
+    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J2 J50 J40 J82:J90 J102:J114 J152:J170 J62:J67 J116:J128 J69:J80 J92:J100 J172:J1048576 J130:J150 J5:J6 J52:J59 J17 J8 J22 K1">
+    <cfRule type="cellIs" dxfId="55" priority="60" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="cellIs" dxfId="54" priority="59" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44:J45">
     <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
+  <conditionalFormatting sqref="J60">
     <cfRule type="cellIs" dxfId="52" priority="57" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J44:J47">
+  <conditionalFormatting sqref="J61">
     <cfRule type="cellIs" dxfId="51" priority="56" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
+  <conditionalFormatting sqref="J68">
     <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J61">
+  <conditionalFormatting sqref="J81">
     <cfRule type="cellIs" dxfId="49" priority="54" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J68">
-    <cfRule type="cellIs" dxfId="48" priority="53" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J81">
-    <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="46" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="45" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="43" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" dxfId="45" priority="42" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="cellIs" dxfId="44" priority="41" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
     <cfRule type="cellIs" dxfId="43" priority="40" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
+  <conditionalFormatting sqref="J14">
     <cfRule type="cellIs" dxfId="42" priority="39" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+  <conditionalFormatting sqref="J16">
     <cfRule type="cellIs" dxfId="41" priority="38" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
+  <conditionalFormatting sqref="J15">
     <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="cellIs" dxfId="39" priority="36" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="38" priority="35" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="35" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="32" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J101">
+    <cfRule type="cellIs" dxfId="36" priority="53" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J115">
+    <cfRule type="cellIs" dxfId="35" priority="52" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J129">
     <cfRule type="cellIs" dxfId="34" priority="51" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J115">
+  <conditionalFormatting sqref="J151">
     <cfRule type="cellIs" dxfId="33" priority="50" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J129">
+  <conditionalFormatting sqref="J171">
     <cfRule type="cellIs" dxfId="32" priority="49" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J151">
+  <conditionalFormatting sqref="J91">
     <cfRule type="cellIs" dxfId="31" priority="48" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J171">
+  <conditionalFormatting sqref="J3">
     <cfRule type="cellIs" dxfId="30" priority="47" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J91">
+  <conditionalFormatting sqref="J4">
     <cfRule type="cellIs" dxfId="29" priority="46" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="28" priority="45" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="27" priority="44" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="36" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
     <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
+  <conditionalFormatting sqref="J27">
     <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
+  <conditionalFormatting sqref="J30">
     <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J33">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
+  <conditionalFormatting sqref="J23">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="J38">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="J48">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
+  <conditionalFormatting sqref="J49">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J41">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
+  <conditionalFormatting sqref="J37">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
+  <conditionalFormatting sqref="J41">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
+  <conditionalFormatting sqref="J46">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
@@ -3442,8 +3687,10 @@
     <hyperlink ref="J43" r:id="rId35" xr:uid="{AD16A391-876F-4E74-8B9E-0E987BC11BBE}"/>
     <hyperlink ref="J37" r:id="rId36" xr:uid="{015F2BFB-E74E-45FB-B377-1DC9A310EA82}"/>
     <hyperlink ref="J41" r:id="rId37" xr:uid="{51933389-E9C3-4131-BC68-944538D2E1D4}"/>
+    <hyperlink ref="J46" r:id="rId38" xr:uid="{91D8EBDA-54D4-4F82-93B5-747B768972B6}"/>
+    <hyperlink ref="J47" r:id="rId39" xr:uid="{006680D3-7F60-4866-9C4E-8530E2AA33F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
 </worksheet>
 </file>
--- a/3.13/left.xlsx
+++ b/3.13/left.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\GitHub\students.mathsnz.com\3.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EF263A-9F79-4345-9249-246216F32EBE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0007EA83-413A-4C83-9CEA-44CC7FD70A61}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="470" windowWidth="14340" windowHeight="6620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1250,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/3.13/left.xlsx
+++ b/3.13/left.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\GitHub\students.mathsnz.com\3.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0007EA83-413A-4C83-9CEA-44CC7FD70A61}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9CD02F-A944-4AF0-A137-29D62081F170}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="470" windowWidth="14340" windowHeight="6620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
   <si>
     <t>Before</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>Header</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/3PNAH7hWuBg?rel=0</t>
   </si>
 </sst>
 </file>
@@ -361,18 +364,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -388,20 +385,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1251,7 +1267,7 @@
   <dimension ref="A1:K171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2987,7 +3003,9 @@
       <c r="I45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="4"/>
+      <c r="J45" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="K45" t="str">
         <f t="shared" si="5"/>
         <v>a</v>
@@ -3380,271 +3398,281 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J26:J27">
-    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="66" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J2 J50 J40 J82:J90 J102:J114 J152:J170 J62:J67 J116:J128 J69:J80 J92:J100 J172:J1048576 J130:J150 J5:J6 J52:J59 J17 J8 J22 K1">
+    <cfRule type="cellIs" dxfId="57" priority="62" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44">
     <cfRule type="cellIs" dxfId="55" priority="60" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
+  <conditionalFormatting sqref="J60">
     <cfRule type="cellIs" dxfId="54" priority="59" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J44:J45">
+  <conditionalFormatting sqref="J61">
     <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
+  <conditionalFormatting sqref="J68">
     <cfRule type="cellIs" dxfId="52" priority="57" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J61">
+  <conditionalFormatting sqref="J81">
     <cfRule type="cellIs" dxfId="51" priority="56" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J68">
-    <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J81">
-    <cfRule type="cellIs" dxfId="49" priority="54" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="47" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="45" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="47" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" dxfId="47" priority="44" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
     <cfRule type="cellIs" dxfId="45" priority="42" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
+  <conditionalFormatting sqref="J14">
     <cfRule type="cellIs" dxfId="44" priority="41" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+  <conditionalFormatting sqref="J16">
     <cfRule type="cellIs" dxfId="43" priority="40" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
+  <conditionalFormatting sqref="J15">
     <cfRule type="cellIs" dxfId="42" priority="39" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="cellIs" dxfId="41" priority="38" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="cellIs" dxfId="39" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="cellIs" dxfId="37" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="34" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J101">
+    <cfRule type="cellIs" dxfId="38" priority="55" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J115">
+    <cfRule type="cellIs" dxfId="37" priority="54" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J129">
     <cfRule type="cellIs" dxfId="36" priority="53" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J115">
+  <conditionalFormatting sqref="J151">
     <cfRule type="cellIs" dxfId="35" priority="52" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J129">
+  <conditionalFormatting sqref="J171">
     <cfRule type="cellIs" dxfId="34" priority="51" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J151">
+  <conditionalFormatting sqref="J91">
     <cfRule type="cellIs" dxfId="33" priority="50" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J171">
+  <conditionalFormatting sqref="J3">
     <cfRule type="cellIs" dxfId="32" priority="49" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J91">
+  <conditionalFormatting sqref="J4">
     <cfRule type="cellIs" dxfId="31" priority="48" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="30" priority="47" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="29" priority="46" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="28" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
     <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
+  <conditionalFormatting sqref="J27">
     <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
+  <conditionalFormatting sqref="J30">
     <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J33">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
+  <conditionalFormatting sqref="J23">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="J38">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="J48">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
+  <conditionalFormatting sqref="J49">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J41">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
+  <conditionalFormatting sqref="J37">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
+  <conditionalFormatting sqref="J41">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
+  <conditionalFormatting sqref="J46">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
+  <conditionalFormatting sqref="J45">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
+  <conditionalFormatting sqref="J45">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
@@ -3689,8 +3717,9 @@
     <hyperlink ref="J41" r:id="rId37" xr:uid="{51933389-E9C3-4131-BC68-944538D2E1D4}"/>
     <hyperlink ref="J46" r:id="rId38" xr:uid="{91D8EBDA-54D4-4F82-93B5-747B768972B6}"/>
     <hyperlink ref="J47" r:id="rId39" xr:uid="{006680D3-7F60-4866-9C4E-8530E2AA33F8}"/>
+    <hyperlink ref="J45" r:id="rId40" xr:uid="{E56FFEE8-98E8-4CFE-8431-5A5BE5C0254D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId41"/>
 </worksheet>
 </file>
--- a/3.13/left.xlsx
+++ b/3.13/left.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\GitHub\students.mathsnz.com\3.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9CD02F-A944-4AF0-A137-29D62081F170}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C7E57D-9735-4AC0-9629-A3204FB4371C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="470" windowWidth="14340" windowHeight="6620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -94,9 +93,6 @@
     <t>Part 4: Probability Trees</t>
   </si>
   <si>
-    <t>Part 6: Complimentary, Independent and Mutually Exclusive Events</t>
-  </si>
-  <si>
     <t>Part 8: Risk and Relative Risk</t>
   </si>
   <si>
@@ -277,15 +273,6 @@
     <t>https://www.youtube.com/embed/O58geTuB4sc?rel=0</t>
   </si>
   <si>
-    <t>Part 6a: Complimentary, Independent and Mutually Exclusive Events Video</t>
-  </si>
-  <si>
-    <t>Part 6b: Complimentary, Independent and Mutually Exclusive Events Notes</t>
-  </si>
-  <si>
-    <t>Part 6.1: Complimentary, Independent and Mutually Exclusive Events Exercise</t>
-  </si>
-  <si>
     <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.13/pdfs/6.1.pdf&amp;embedded=true</t>
   </si>
   <si>
@@ -341,6 +328,18 @@
   </si>
   <si>
     <t>https://www.youtube.com/embed/3PNAH7hWuBg?rel=0</t>
+  </si>
+  <si>
+    <t>Part 6: Complementary, Independent and Mutually Exclusive Events</t>
+  </si>
+  <si>
+    <t>Part 6a: Complementary, Independent and Mutually Exclusive Events Video</t>
+  </si>
+  <si>
+    <t>Part 6b: Complementary, Independent and Mutually Exclusive Events Notes</t>
+  </si>
+  <si>
+    <t>Part 6.1: Complementary, Independent and Mutually Exclusive Events Exercise</t>
   </si>
 </sst>
 </file>
@@ -397,37 +396,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="56">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1267,7 +1236,7 @@
   <dimension ref="A1:K171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1309,7 +1278,7 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1318,7 +1287,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C50" si="0">IF(I2&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1354,7 +1323,7 @@
         <v>&lt;a href='3.13_1a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
@@ -1380,7 +1349,7 @@
         <v>9</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K51" si="5">SUBSTITUTE(MID(F3,2,99),".","")</f>
@@ -1393,7 +1362,7 @@
         <v>&lt;a href='3.13_1_1.html' class=Questions header=1&gt;</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -1432,7 +1401,7 @@
         <v>&lt;a href='3.13_1_1a.html' class=Document header=1a&gt;</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -1508,7 +1477,7 @@
         <v>&lt;a href='3.13_2a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -1534,7 +1503,7 @@
         <v>9</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="5"/>
@@ -1547,7 +1516,7 @@
         <v>&lt;a href='3.13_2b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -1573,7 +1542,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="5"/>
@@ -1586,7 +1555,7 @@
         <v>&lt;a href='3.13_2_1.html' class=Questions header=1&gt;</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -1612,7 +1581,7 @@
         <v>11</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="5"/>
@@ -1625,7 +1594,7 @@
         <v>&lt;a href='3.13_2_1a.html' class=Document header=1a&gt;</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="str">
         <f>IF(I10&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1651,7 +1620,7 @@
         <v>8</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="5"/>
@@ -1664,7 +1633,7 @@
         <v>&lt;a href='3.13_2_2.html' class=Questions header=2&gt;</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -1690,7 +1659,7 @@
         <v>11</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="5"/>
@@ -1703,7 +1672,7 @@
         <v>&lt;a href='3.13_2_2a.html' class=Document header=2a&gt;</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="str">
         <f>IF(I12&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1729,7 +1698,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="5"/>
@@ -1742,7 +1711,7 @@
         <v>&lt;a href='3.13_2_3.html' class=Video header=3&gt;</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -1768,7 +1737,7 @@
         <v>9</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="5"/>
@@ -1781,7 +1750,7 @@
         <v>&lt;a href='3.13_2_3a.html' class=Document header=3a&gt;</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" t="str">
         <f>IF(I14&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1807,7 +1776,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="5"/>
@@ -1820,7 +1789,7 @@
         <v>&lt;a href='3.13_2_4.html' class=Questions header=4&gt;</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -1846,7 +1815,7 @@
         <v>11</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="5"/>
@@ -1859,7 +1828,7 @@
         <v>&lt;a href='3.13_2_4a.html' class=Document header=4a&gt;</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" t="str">
         <f>IF(I16&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1885,7 +1854,7 @@
         <v>8</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="5"/>
@@ -1935,7 +1904,7 @@
         <v>&lt;a href='3.13_3a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -1961,7 +1930,7 @@
         <v>9</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="5"/>
@@ -1974,7 +1943,7 @@
         <v>&lt;a href='3.13_3b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -2000,7 +1969,7 @@
         <v>8</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="5"/>
@@ -2013,7 +1982,7 @@
         <v>&lt;a href='3.13_3_1.html' class=Document header=1&gt;</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -2039,7 +2008,7 @@
         <v>8</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="5"/>
@@ -2052,7 +2021,7 @@
         <v>&lt;a href='3.13_3_2.html' class=Document header=2&gt;</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -2078,7 +2047,7 @@
         <v>8</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="5"/>
@@ -2128,7 +2097,7 @@
         <v>&lt;a href='3.13_4a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -2154,7 +2123,7 @@
         <v>9</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="5"/>
@@ -2167,7 +2136,7 @@
         <v>&lt;a href='3.13_4b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -2193,7 +2162,7 @@
         <v>8</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="5"/>
@@ -2206,7 +2175,7 @@
         <v>&lt;a href='3.13_4_1.html' class=Document header=1&gt;</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -2232,7 +2201,7 @@
         <v>8</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="5"/>
@@ -2245,7 +2214,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -2282,7 +2251,7 @@
         <v>&lt;a href='3.13_5a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -2308,7 +2277,7 @@
         <v>9</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="5"/>
@@ -2321,7 +2290,7 @@
         <v>&lt;a href='3.13_5b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -2347,7 +2316,7 @@
         <v>8</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="5"/>
@@ -2360,7 +2329,7 @@
         <v>&lt;a href='3.13_5_1.html' class=Document header=1&gt;</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -2386,7 +2355,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="5"/>
@@ -2399,7 +2368,7 @@
         <v>&lt;a href='3.13_5_2.html' class=Video header=2&gt;</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -2425,7 +2394,7 @@
         <v>9</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="5"/>
@@ -2438,7 +2407,7 @@
         <v>&lt;a href='3.13_5_2a.html' class=Document header=2a&gt;</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -2464,7 +2433,7 @@
         <v>8</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="5"/>
@@ -2477,7 +2446,7 @@
         <v>&lt;a href='3.13_5_3.html' class=Document header=3&gt;</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -2503,7 +2472,7 @@
         <v>8</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="5"/>
@@ -2516,7 +2485,7 @@
         <v>&lt;a href='3.13_5_4.html' class=Video header=4&gt;</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -2542,7 +2511,7 @@
         <v>9</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="5"/>
@@ -2555,7 +2524,7 @@
         <v>&lt;a href='3.13_5_4a.html' class=Document header=4a&gt;</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -2581,7 +2550,7 @@
         <v>8</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="5"/>
@@ -2594,7 +2563,7 @@
         <v>&lt;a href='3.13_5_5.html' class=Document header=5&gt;</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
@@ -2620,7 +2589,7 @@
         <v>8</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="5"/>
@@ -2633,7 +2602,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
@@ -2670,7 +2639,7 @@
         <v>&lt;a href='3.13_6a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
@@ -2696,7 +2665,7 @@
         <v>9</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="5"/>
@@ -2709,7 +2678,7 @@
         <v>&lt;a href='3.13_6b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
@@ -2735,7 +2704,7 @@
         <v>8</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="5"/>
@@ -2748,7 +2717,7 @@
         <v>&lt;a href='3.13_6_1.html' class=Document header=1&gt;</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
@@ -2774,7 +2743,7 @@
         <v>8</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="5"/>
@@ -2787,7 +2756,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
@@ -2824,7 +2793,7 @@
         <v>&lt;a href='3.13_7a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" ref="C41:C43" si="13">IF(I41&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -2850,7 +2819,7 @@
         <v>9</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="5"/>
@@ -2863,7 +2832,7 @@
         <v>&lt;a href='3.13_7b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="13"/>
@@ -2889,7 +2858,7 @@
         <v>8</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="5"/>
@@ -2902,7 +2871,7 @@
         <v>&lt;a href='3.13_7_1.html' class=Document header=1&gt;</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="13"/>
@@ -2928,7 +2897,7 @@
         <v>8</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="5"/>
@@ -2941,7 +2910,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
@@ -2978,7 +2947,7 @@
         <v>&lt;a href='3.13_8a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
@@ -3004,7 +2973,7 @@
         <v>9</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="5"/>
@@ -3017,7 +2986,7 @@
         <v>&lt;a href='3.13_8b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
@@ -3043,7 +3012,7 @@
         <v>8</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="5"/>
@@ -3056,7 +3025,7 @@
         <v>&lt;a href='3.13_8_1.html' class=Document header=1&gt;</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
@@ -3082,7 +3051,7 @@
         <v>8</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="5"/>
@@ -3095,22 +3064,22 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" ref="C48:C49" si="22">IF(I48&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <f t="shared" ref="C48" si="22">IF(I48&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
         <v>&lt;/span&gt;</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" ref="E48:E49" si="23">LEFT(B48,FIND(":",B48)-1)</f>
+        <f t="shared" ref="E48" si="23">LEFT(B48,FIND(":",B48)-1)</f>
         <v>Part 9</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" ref="F48:F49" si="24">RIGHT(E48,LEN(E48)-FIND(" ",E48))</f>
+        <f t="shared" ref="F48" si="24">RIGHT(E48,LEN(E48)-FIND(" ",E48))</f>
         <v>9</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" ref="G48:G49" si="25">SUBSTITUTE(F48,".","_")</f>
+        <f t="shared" ref="G48" si="25">SUBSTITUTE(F48,".","_")</f>
         <v>9</v>
       </c>
       <c r="H48" t="str">
@@ -3132,7 +3101,7 @@
         <v>&lt;a href='3.13_9a.html' class=Document header=a&gt;</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C49" t="str">
         <f>IF(I49&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -3158,7 +3127,7 @@
         <v>8</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="5"/>
@@ -3398,257 +3367,257 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J26:J27">
-    <cfRule type="cellIs" dxfId="58" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="66" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J2 J50 J40 J82:J90 J102:J114 J152:J170 J62:J67 J116:J128 J69:J80 J92:J100 J172:J1048576 J130:J150 J5:J6 J52:J59 J17 J8 J22 K1">
-    <cfRule type="cellIs" dxfId="57" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="61" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="55" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="60" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60">
-    <cfRule type="cellIs" dxfId="54" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="59" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J61">
-    <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="58" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68">
-    <cfRule type="cellIs" dxfId="52" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="57" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J81">
-    <cfRule type="cellIs" dxfId="51" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="56" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="49" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="cellIs" dxfId="48" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="47" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="45" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="44" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="cellIs" dxfId="43" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="42" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="36" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="cellIs" dxfId="39" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J101">
-    <cfRule type="cellIs" dxfId="38" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="55" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J115">
-    <cfRule type="cellIs" dxfId="37" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="54" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J129">
-    <cfRule type="cellIs" dxfId="36" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="53" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J151">
-    <cfRule type="cellIs" dxfId="35" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="52" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J171">
-    <cfRule type="cellIs" dxfId="34" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="51" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91">
-    <cfRule type="cellIs" dxfId="33" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="50" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="32" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="49" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="31" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="48" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="33" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/3.13/left.xlsx
+++ b/3.13/left.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\GitHub\students.mathsnz.com\3.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C7E57D-9735-4AC0-9629-A3204FB4371C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80A20BA-BB69-4F9B-B43A-C3F841A746C4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="470" windowWidth="14340" windowHeight="6620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -306,9 +306,6 @@
     <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.13/pdfs/7.1.pdf&amp;embedded=true</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/GyrpUw9WTAM?rel=0</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/embed/xqQHdnYye4Y?rel=0</t>
   </si>
   <si>
@@ -340,6 +337,9 @@
   </si>
   <si>
     <t>Part 6.1: Complementary, Independent and Mutually Exclusive Events Exercise</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/IZ0R2ZTmDMY?rel=0</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1236,7 @@
   <dimension ref="A1:K171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1278,7 +1278,7 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2602,7 +2602,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
@@ -2639,7 +2639,7 @@
         <v>&lt;a href='3.13_6a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
@@ -2665,7 +2665,7 @@
         <v>9</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="5"/>
@@ -2678,7 +2678,7 @@
         <v>&lt;a href='3.13_6b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
@@ -2717,7 +2717,7 @@
         <v>&lt;a href='3.13_6_1.html' class=Document header=1&gt;</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
@@ -2819,7 +2819,7 @@
         <v>9</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="5"/>
@@ -2947,7 +2947,7 @@
         <v>&lt;a href='3.13_8a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
@@ -2973,7 +2973,7 @@
         <v>9</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="5"/>
@@ -2986,7 +2986,7 @@
         <v>&lt;a href='3.13_8b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
@@ -3025,7 +3025,7 @@
         <v>&lt;a href='3.13_8_1.html' class=Document header=1&gt;</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
@@ -3051,7 +3051,7 @@
         <v>8</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="5"/>

--- a/3.13/left.xlsx
+++ b/3.13/left.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\GitHub\students.mathsnz.com\3.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80A20BA-BB69-4F9B-B43A-C3F841A746C4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F79638C-274C-4794-A240-5BA974B51DA4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="470" windowWidth="14340" windowHeight="6620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,9 +255,6 @@
     <t>https://www.youtube.com/embed/Red89TxSftw?rel=0</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/ybN30TCObc0?rel=0</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/embed/-kVCjCyXWSs?rel=0</t>
   </si>
   <si>
@@ -340,6 +337,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/embed/IZ0R2ZTmDMY?rel=0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/PY_Tx3o14O0?rel=0</t>
   </si>
 </sst>
 </file>
@@ -1233,11 +1233,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K171"/>
+  <dimension ref="A1:K163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1278,7 +1276,7 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1737,7 +1735,7 @@
         <v>9</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="5"/>
@@ -1930,7 +1928,7 @@
         <v>9</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="5"/>
@@ -2123,7 +2121,7 @@
         <v>9</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="5"/>
@@ -2277,7 +2275,7 @@
         <v>9</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="5"/>
@@ -2394,7 +2392,7 @@
         <v>9</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="5"/>
@@ -2511,7 +2509,7 @@
         <v>9</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="5"/>
@@ -2602,7 +2600,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
@@ -2639,7 +2637,7 @@
         <v>&lt;a href='3.13_6a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
@@ -2665,7 +2663,7 @@
         <v>9</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="5"/>
@@ -2678,7 +2676,7 @@
         <v>&lt;a href='3.13_6b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
@@ -2717,7 +2715,7 @@
         <v>&lt;a href='3.13_6_1.html' class=Document header=1&gt;</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
@@ -2743,7 +2741,7 @@
         <v>8</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="5"/>
@@ -2756,7 +2754,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
@@ -2793,7 +2791,7 @@
         <v>&lt;a href='3.13_7a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" ref="C41:C43" si="13">IF(I41&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -2819,7 +2817,7 @@
         <v>9</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="5"/>
@@ -2832,7 +2830,7 @@
         <v>&lt;a href='3.13_7b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="13"/>
@@ -2858,7 +2856,7 @@
         <v>8</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="5"/>
@@ -2871,7 +2869,7 @@
         <v>&lt;a href='3.13_7_1.html' class=Document header=1&gt;</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="13"/>
@@ -2897,7 +2895,7 @@
         <v>8</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="5"/>
@@ -2947,7 +2945,7 @@
         <v>&lt;a href='3.13_8a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
@@ -2973,7 +2971,7 @@
         <v>9</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="5"/>
@@ -2986,7 +2984,7 @@
         <v>&lt;a href='3.13_8b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
@@ -3012,7 +3010,7 @@
         <v>8</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="5"/>
@@ -3025,7 +3023,7 @@
         <v>&lt;a href='3.13_8_1.html' class=Document header=1&gt;</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
@@ -3051,7 +3049,7 @@
         <v>8</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="5"/>
@@ -3064,7 +3062,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" ref="C48" si="22">IF(I48&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -3101,7 +3099,7 @@
         <v>&lt;a href='3.13_9a.html' class=Document header=a&gt;</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49" t="str">
         <f>IF(I49&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -3127,7 +3125,7 @@
         <v>8</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="5"/>
@@ -3218,17 +3216,17 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J58" s="2"/>
@@ -3237,6 +3235,7 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I60" s="3"/>
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
@@ -3247,63 +3246,60 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="9:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-    </row>
-    <row r="66" spans="9:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="9:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I68" s="3"/>
+    <row r="68" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="9:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="9:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="9:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="9:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="9:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I73" s="3"/>
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="9:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="9:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="9:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="9:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="9:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="9:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="9:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I81" s="3"/>
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="9:10" x14ac:dyDescent="0.35">
@@ -3321,49 +3317,25 @@
     <row r="86" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J87" s="2"/>
-    </row>
-    <row r="88" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J88" s="2"/>
-    </row>
-    <row r="89" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J89" s="2"/>
-    </row>
-    <row r="90" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J90" s="2"/>
-    </row>
-    <row r="91" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J91" s="2"/>
-    </row>
-    <row r="92" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J92" s="2"/>
-    </row>
     <row r="93" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I93" s="3"/>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J94" s="2"/>
-    </row>
-    <row r="101" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I101" s="3"/>
-      <c r="J101" s="2"/>
-    </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I115" s="3"/>
-      <c r="J115" s="2"/>
-    </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I129" s="3"/>
-      <c r="J129" s="2"/>
-    </row>
-    <row r="151" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I151" s="3"/>
-      <c r="J151" s="2"/>
-    </row>
-    <row r="171" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I171" s="3"/>
-      <c r="J171" s="2"/>
+    <row r="107" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I107" s="3"/>
+      <c r="J107" s="2"/>
+    </row>
+    <row r="121" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I121" s="3"/>
+      <c r="J121" s="2"/>
+    </row>
+    <row r="143" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I143" s="3"/>
+      <c r="J143" s="2"/>
+    </row>
+    <row r="163" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I163" s="3"/>
+      <c r="J163" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J26:J27">
@@ -3371,7 +3343,7 @@
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J2 J50 J40 J82:J90 J102:J114 J152:J170 J62:J67 J116:J128 J69:J80 J92:J100 J172:J1048576 J130:J150 J5:J6 J52:J59 J17 J8 J22 K1">
+  <conditionalFormatting sqref="J1:J2 J50 J40 J74:J82 J94:J106 J144:J162 J54:J59 J108:J120 J61:J72 J84:J92 J164:J1048576 J122:J142 J5:J6 J17 J8 J22 K1">
     <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
@@ -3386,22 +3358,22 @@
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="cellIs" dxfId="51" priority="59" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="cellIs" dxfId="50" priority="58" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J60">
-    <cfRule type="cellIs" dxfId="51" priority="59" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J61">
-    <cfRule type="cellIs" dxfId="50" priority="58" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J68">
     <cfRule type="cellIs" dxfId="49" priority="57" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J81">
+  <conditionalFormatting sqref="J73">
     <cfRule type="cellIs" dxfId="48" priority="56" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
@@ -3466,32 +3438,32 @@
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J101">
+  <conditionalFormatting sqref="J93">
     <cfRule type="cellIs" dxfId="35" priority="55" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J115">
+  <conditionalFormatting sqref="J107">
     <cfRule type="cellIs" dxfId="34" priority="54" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J129">
+  <conditionalFormatting sqref="J121">
     <cfRule type="cellIs" dxfId="33" priority="53" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J151">
+  <conditionalFormatting sqref="J143">
     <cfRule type="cellIs" dxfId="32" priority="52" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J171">
+  <conditionalFormatting sqref="J163">
     <cfRule type="cellIs" dxfId="31" priority="51" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J91">
+  <conditionalFormatting sqref="J83">
     <cfRule type="cellIs" dxfId="30" priority="50" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
